--- a/src/assets/zxsj_mb/zxtb_k10_zyhbj.xlsx
+++ b/src/assets/zxsj_mb/zxtb_k10_zyhbj.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>年度</t>
   </si>
@@ -28,22 +28,19 @@
     <t>专业名称A</t>
   </si>
   <si>
-    <t>新开</t>
-  </si>
-  <si>
     <t>开设</t>
   </si>
   <si>
     <t>专业名称B</t>
   </si>
   <si>
-    <t>调整</t>
+    <t>新开</t>
   </si>
   <si>
     <t>专业名称C</t>
   </si>
   <si>
-    <t>改革</t>
+    <t>调整</t>
   </si>
   <si>
     <t>专业名称D</t>
@@ -59,8 +56,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -86,12 +83,57 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -99,6 +141,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -107,37 +189,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,79 +219,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,13 +235,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,19 +349,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,145 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,6 +459,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -479,29 +485,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,7 +513,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,6 +532,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -552,145 +549,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1029,13 +1026,15 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="10.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="23.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="25.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1069,7 +1068,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1" spans="1:3">
@@ -1077,10 +1076,10 @@
         <v>2018</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" ht="26" customHeight="1" spans="1:3">
@@ -1088,10 +1087,10 @@
         <v>2018</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" ht="26" customHeight="1" spans="1:3">
@@ -1099,13 +1098,18 @@
         <v>2018</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6">
+      <formula1>"开设,新开,调整,关停,改革"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/src/assets/zxsj_mb/zxtb_k10_zyhbj.xlsx
+++ b/src/assets/zxsj_mb/zxtb_k10_zyhbj.xlsx
@@ -14,36 +14,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>年度</t>
   </si>
   <si>
+    <t>专业类别</t>
+  </si>
+  <si>
     <t>专业名称</t>
   </si>
   <si>
-    <t>状态 （开设、调整、改革）</t>
-  </si>
-  <si>
-    <t>专业名称A</t>
+    <t>专业方向</t>
+  </si>
+  <si>
+    <t>专业代码</t>
+  </si>
+  <si>
+    <t>层次</t>
+  </si>
+  <si>
+    <t>学制</t>
+  </si>
+  <si>
+    <t>最低修业年限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">状态 </t>
+  </si>
+  <si>
+    <t>自动化类</t>
+  </si>
+  <si>
+    <t>机械电子工程</t>
+  </si>
+  <si>
+    <t>高起专</t>
   </si>
   <si>
     <t>开设</t>
   </si>
   <si>
-    <t>专业名称B</t>
+    <t>信息类</t>
+  </si>
+  <si>
+    <t>软件工程</t>
+  </si>
+  <si>
+    <t>公共安全类</t>
+  </si>
+  <si>
+    <t>城市公共安全管理</t>
   </si>
   <si>
     <t>新开</t>
   </si>
   <si>
-    <t>专业名称C</t>
+    <t>农业类</t>
+  </si>
+  <si>
+    <t>农业经济管理</t>
   </si>
   <si>
     <t>调整</t>
   </si>
   <si>
-    <t>专业名称D</t>
+    <t>建设工程管理类</t>
+  </si>
+  <si>
+    <t>建设工程管理</t>
   </si>
   <si>
     <t>关停</t>
@@ -56,16 +95,22 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -82,6 +127,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -89,6 +148,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -97,53 +172,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,32 +194,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,9 +230,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,8 +246,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,187 +286,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,6 +496,47 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -462,33 +554,16 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -513,31 +588,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,10 +600,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -561,147 +612,154 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1023,90 +1081,192 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="10.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="25.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="2" max="2" width="15.5555555555556" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.8888888888889" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1111111111111" style="1" customWidth="1"/>
+    <col min="5" max="7" width="11.5740740740741" style="1"/>
+    <col min="8" max="8" width="14.8888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="31" customHeight="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="1" ht="31" customHeight="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" customFormat="1" ht="26" customHeight="1" spans="1:3">
+    <row r="2" customFormat="1" ht="26" customHeight="1" spans="1:9">
       <c r="A2" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5">
+        <v>510118</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
+      <c r="H2" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" ht="26" customHeight="1" spans="1:3">
+    <row r="3" ht="26" customHeight="1" spans="1:9">
       <c r="A3" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B3" s="3" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5">
+        <v>510119</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
+      <c r="H3" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" ht="26" customHeight="1" spans="1:3">
+    <row r="4" ht="26" customHeight="1" spans="1:9">
       <c r="A4" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>2019</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5">
+        <v>510120</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" ht="26" customHeight="1" spans="1:3">
+    <row r="5" ht="26" customHeight="1" spans="1:9">
       <c r="A5" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>2019</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
+        <v>510121</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="5">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" ht="26" customHeight="1" spans="1:3">
+    <row r="6" ht="26" customHeight="1" spans="1:9">
       <c r="A6" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>2019</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
+        <v>510122</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6">
       <formula1>"开设,新开,调整,关停,改革"</formula1>
     </dataValidation>
   </dataValidations>
